--- a/OpticalPhantomExperiment/OpticalPhantomMaterials/OpticalPhantomSpectra.xlsx
+++ b/OpticalPhantomExperiment/OpticalPhantomMaterials/OpticalPhantomSpectra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/topas/OpticalPhantomExperiment/OpticalPhantomMaterials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908ABF3-A649-284F-BE3E-284B0E31E59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949D951-3CFC-9041-81E3-F34296ADBF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34080" yWindow="-2640" windowWidth="27640" windowHeight="16760" xr2:uid="{1FB171C6-63BE-6B41-B231-40DD45398E69}"/>
+    <workbookView xWindow="11680" yWindow="660" windowWidth="27640" windowHeight="15980" xr2:uid="{1FB171C6-63BE-6B41-B231-40DD45398E69}"/>
   </bookViews>
   <sheets>
     <sheet name="CLEAN DATA" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>mua = c*abs</t>
   </si>
   <si>
-    <t>Abs lengths</t>
-  </si>
-  <si>
     <t>Relative Absorption of Carbon Powder</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>https://www.researchgate.net/figure/UV-Vis-NIR-absorption-spectra-of-carbon-black-powder_fig4_51500474</t>
+  </si>
+  <si>
+    <t>Abs lengths (cm)</t>
   </si>
 </sst>
 </file>
@@ -376,15 +376,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>401841</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>160374</xdr:rowOff>
+      <xdr:colOff>491488</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>649654</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>196521</xdr:rowOff>
+      <xdr:colOff>373243</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>174109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -407,8 +407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9660141" y="4452974"/>
-          <a:ext cx="5632613" cy="4303347"/>
+          <a:off x="9755017" y="2790021"/>
+          <a:ext cx="5634108" cy="4271970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,7 +729,7 @@
     <tableColumn id="6" xr3:uid="{322230DF-E9FA-F740-A816-5F688F95C0BB}" name="mua = c*abs" dataDxfId="1">
       <calculatedColumnFormula>H$8*K5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{52D89AFC-9564-CB42-8ADF-3022C3E6CB44}" name="Abs lengths" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{52D89AFC-9564-CB42-8ADF-3022C3E6CB44}" name="Abs lengths (cm)" dataDxfId="6">
       <calculatedColumnFormula>1/H5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{48B8175F-65BF-174B-84F1-B331EBA42E08}" name="Relative Absorption of Carbon Powder" dataDxfId="5"/>
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A9237A0-4D9C-504E-ABCF-D1292C44EC05}">
   <dimension ref="B4:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="30.1640625" customWidth="1"/>
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" customWidth="1"/>
     <col min="12" max="12" width="29.1640625" customWidth="1"/>
@@ -1101,17 +1101,17 @@
       <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1394,12 +1394,12 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15">
         <f>E8/(C8^-0.86)</f>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <f>10.89/(C8^-0.86)</f>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <f>20.35/(C9^-0.86)</f>
@@ -1426,12 +1426,12 @@
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
